--- a/target/test-classes/Zoho.xlsx
+++ b/target/test-classes/Zoho.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F709D1-BED4-4B5D-A16E-71F01B162372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A18063-CDB0-4FF0-BEED-189CC95E1B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>LoginTest</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Failure</t>
   </si>
 </sst>
 </file>
@@ -630,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
